--- a/data/trans_camb/P25A_3_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_3_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,94</t>
+          <t>-0,77; 0,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,75</t>
+          <t>-0,71; 0,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 9,1</t>
+          <t>0,48; 3,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,27</t>
+          <t>-2,66; 0,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,29</t>
+          <t>-0,63; 1,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 8,6</t>
+          <t>-0,29; 1,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,77</t>
+          <t>-0,33; 1,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,71</t>
+          <t>0,43; 3,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,15</t>
+          <t>-2,67; 0,8</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 1,95</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 0,83</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 0,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 2,9</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 0,28</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 1,47</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>765,29%</t>
+          <t>310,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>113,78%</t>
+          <t>-40,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>104,47%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>905,59%</t>
+          <t>106,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>104,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>398,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>827,37%</t>
+          <t>-23,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>122,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49,14%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>349,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-32,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>86,62%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-82,18; 592,49</t>
+          <t>-83,52; 444,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,32; 601,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,51; 4080,62</t>
+          <t>11,5; 1455,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,89; —</t>
+          <t>-81,3; 37,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,5; —</t>
+          <t>-59,98; 344,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,17; —</t>
+          <t>-67,19; 952,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 285,72</t>
+          <t>-67,24; 979,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 289,93</t>
+          <t>-13,73; 2597,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>249,62; 2328,81</t>
+          <t>-73,33; 69,21</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-27,77; 585,73</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-46,0; 327,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-46,99; 396,97</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>71,54; 1103,0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-66,29; 20,04</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 296,49</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,53</t>
+          <t>-1,02; 0,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,69</t>
+          <t>-1,0; 0,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 8,31</t>
+          <t>0,19; 2,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,94</t>
+          <t>-2,27; 1,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,85</t>
+          <t>-0,34; 2,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 28,84</t>
+          <t>-2,31; 1,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,51</t>
+          <t>-2,4; 0,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,62</t>
+          <t>0,3; 5,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 16,71</t>
+          <t>-3,93; 2,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 3,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 0,47</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 0,48</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,28</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 1,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 2,05</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-39,02%</t>
+          <t>-31,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>261,9%</t>
+          <t>236,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>-43,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>206,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1507,37%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,91%</t>
+          <t>-23,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>251,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1058,09%</t>
+          <t>-18,62%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-20,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-16,58%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>245,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-28,67%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1275,67 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,42; 1686,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 571,37</t>
+          <t>-85,81; 118,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 472,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 9930,94</t>
+          <t>-100,0; 495,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 174,08</t>
+          <t>-100,0; 379,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,92; 274,54</t>
+          <t>-31,29; 1808,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>145,32; 4743,63</t>
+          <t>-74,64; 119,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-76,67; 295,5</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-87,23; 169,27</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-84,56; 151,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 899,12</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-70,12; 55,23</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-60,3; 298,06</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,43</t>
+          <t>-1,3; 2,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,35</t>
+          <t>-0,97; 4,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 1,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,02</t>
+          <t>-4,29; 2,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,88</t>
+          <t>-2,73; 6,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 1,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 2,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,78</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>125,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-59,97%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-31,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-41,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,19%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-35,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-16,19%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1253,15 +1631,45 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 248,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 452,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 336,49</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-84,89; 710,19</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,53</t>
+          <t>-0,55; 0,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,63</t>
+          <t>-0,52; 0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,57</t>
+          <t>0,49; 2,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,68</t>
+          <t>-1,63; 0,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,77</t>
+          <t>-0,28; 1,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,99</t>
+          <t>-0,83; 0,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,47</t>
+          <t>-0,82; 0,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,52</t>
+          <t>0,68; 3,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,33</t>
+          <t>-2,3; 0,55</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 1,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 0,51</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 0,59</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 2,45</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 0,15</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 1,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>667,12%</t>
+          <t>231,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>-29,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>643,79%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>228,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>653,97%</t>
+          <t>-31,5%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>62,01%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14,38%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>229,63%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-31,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>65,71%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 201,81</t>
+          <t>-65,57; 255,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,43; 230,78</t>
+          <t>-61,69; 234,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>187,19; 2163,85</t>
+          <t>40,29; 768,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,68; 146,94</t>
+          <t>-67,83; 49,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 176,01</t>
+          <t>-35,53; 367,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>107,94; 2199,24</t>
+          <t>-60,84; 225,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-51,02; 107,24</t>
+          <t>-62,04; 206,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 121,87</t>
+          <t>19,77; 715,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>259,64; 1487,78</t>
+          <t>-61,28; 29,6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-22,78; 241,52</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,98; 106,08</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-44,31; 131,53</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>63,31; 477,63</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-57,23; 8,38</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 201,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
